--- a/examples/SwarmRanging/AdaptiveToFrequency/统计.xlsx
+++ b/examples/SwarmRanging/AdaptiveToFrequency/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPy\crazyflie-lib-python\examples\SwarmRanging\AdaptiveToFrequency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C761E-874D-4A42-B277-D469CC75A9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A419C42-3B64-4E76-9463-4A2079DF107F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>10+rd*11</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,15 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distance20 3249 118</t>
-  </si>
-  <si>
-    <t>distance30 2795 83</t>
-  </si>
-  <si>
-    <t>distance40 1667 99</t>
-  </si>
-  <si>
     <t>group Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +280,43 @@
   <si>
     <t>group_test_10203040_40</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单项测距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_rd41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_rd41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_rd41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4399 28</t>
+  </si>
+  <si>
+    <t>3869 29</t>
+  </si>
+  <si>
+    <t>distance20 3675 34</t>
+  </si>
+  <si>
+    <t>distance30 3195 33</t>
+  </si>
+  <si>
+    <t>distance40 2767 38</t>
+  </si>
+  <si>
+    <t>3364 121</t>
+  </si>
+  <si>
+    <t>2894 36</t>
   </si>
 </sst>
 </file>
@@ -637,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B10"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -670,11 +698,11 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -698,10 +726,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -805,7 +833,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -828,11 +856,11 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -845,10 +873,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -858,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -871,20 +899,20 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -896,20 +924,20 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -918,23 +946,23 @@
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -944,23 +972,23 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -969,59 +997,94 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A1:B1"/>
@@ -1036,6 +1099,7 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="G20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
